--- a/biology/Origine et évolution du vivant/Paléobotanique/Paléobotanique.xlsx
+++ b/biology/Origine et évolution du vivant/Paléobotanique/Paléobotanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pal%C3%A9obotanique</t>
+          <t>Paléobotanique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La paléobotanique (du grec paleon = ancien et botanikos = relatif aux herbes) est une branche de la paléontologie. Elle permet de retracer, grâce à l'étude des plantes fossiles, les grandes étapes de l'histoire évolutive des végétaux. La paléobotanique permet aussi de reconstituer des environnements anciens, et les paléopaysages. Elle est fondée sur l'analyse des structures végétales qui peuvent subir la fossilisation : feuilles, bois, écorces, pollens, fruits…
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pal%C3%A9obotanique</t>
+          <t>Paléobotanique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,54 +523,165 @@
           <t>Formations géologiques et paléontologie végétale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De nombreux types de roches et de sédiments peuvent contenir des fossiles végétaux :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>De nombreux types de roches et de sédiments peuvent contenir des fossiles végétaux :
 grès fins et argiles, associés à des niveaux charbonneux.
 calcaires.
 travertin.
 houille et certains schistes
 tourbe (riche en pollen et en macrorestes végétaux)
 sédiments lacustres et marins
-Sols forestiers – renfermant des bois carbonisés (charbon de bois) ou des phytolithes
-Fossiles des roches charbonneuses
-On rencontre parfois d'importantes parties de végétaux fossilisés notamment dans le charbon. Ces fossiles sont souvent datés du Carbonifère.
-Travertins
-Les travertins renferment souvent de délicates empreintes de feuilles. Ce sont des dépôts calcaires dus à des sources pétrifiantes.
-Environnements marins
-Calcaires d'algues
-Ce sont des calcaires construits édifiés à partir du thalle de certaines algues incrustantes comme les lithothamniées ou les mélobésiées qui vivent en colonie sur les hauts fonds marins.
+Sols forestiers – renfermant des bois carbonisés (charbon de bois) ou des phytolithes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Paléobotanique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pal%C3%A9obotanique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Formations géologiques et paléontologie végétale</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles des roches charbonneuses</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre parfois d'importantes parties de végétaux fossilisés notamment dans le charbon. Ces fossiles sont souvent datés du Carbonifère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paléobotanique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pal%C3%A9obotanique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Formations géologiques et paléontologie végétale</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Travertins</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travertins renferment souvent de délicates empreintes de feuilles. Ce sont des dépôts calcaires dus à des sources pétrifiantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paléobotanique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pal%C3%A9obotanique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Formations géologiques et paléontologie végétale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Environnements marins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Calcaires d'algues</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des calcaires construits édifiés à partir du thalle de certaines algues incrustantes comme les lithothamniées ou les mélobésiées qui vivent en colonie sur les hauts fonds marins.
 On en recense du précambrien à aujourd'hui. Ainsi en Méditerranée des algues arrivent à édifier des plattiers décimétriques.
 Les calcaires de Vigny (Val-d'Oise) proviennent de la fossilisation de débris meubles (comme le maërl actuel des estuaires bretons) provenant d'algues rouges (floridées).
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pal%C3%A9obotanique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pal%C3%A9obotanique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paléobotanique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pal%C3%A9obotanique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Types de fossiles de végétaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'un des types les plus courants de fossiles de plantes est un fossile de compression, dans lequel une feuille ou une partie de la plante a été compressée entre les couches de sédiments et souvent conservée comme un film carboné. On trouve aussi communément du pollen fossile ou des spores en provenance de lits de lacs fossiles, ainsi que de charbon de bois. Moins commun, mais économiquement important, est le charbon qui provient des plantes des marais du Carbonifère.
 Parmi les plus spectaculaires formes de fossiles de plantes se trouve le bois silicifié.
@@ -573,38 +696,77 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pal%C3%A9obotanique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pal%C3%A9obotanique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paléobotanique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pal%C3%A9obotanique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Classifications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psilophytes
-Cooksonia
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Psilophytes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cooksonia
 Rhynia
-Psilotum
-Lycophytes
-Baragwanathia (?Silurien-Dévonien)
+Psilotum</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paléobotanique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pal%C3%A9obotanique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classifications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lycophytes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Baragwanathia (?Silurien-Dévonien)
 Protolepidodendrales (Dévonien-Carbonifère)
 Leclercqia (es)
 Lepidodendrales (Dévonien-Permien)
@@ -616,17 +778,85 @@
 Selaginellales (Carbonifère-actuel)
 Pleuromeiales (Trias-Crétacé)
 Pleuromeia
-Isoetales (Crétacé-actuel)
-Arthrophytes = Sphénophytes
-Sphénophyllales (Dévonien-Trias)
+Isoetales (Crétacé-actuel)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paléobotanique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pal%C3%A9obotanique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classifications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Arthrophytes = Sphénophytes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sphénophyllales (Dévonien-Trias)
 Sphenophyllum
 Equisétales (Dévonien-actuel)
 Calamites
 Annularia
 Asterophyllites
-Calamostachys
-Ptéridophytes
-Cladoxylales (Dévonien-Carbonifère)
+Calamostachys</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paléobotanique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pal%C3%A9obotanique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classifications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ptéridophytes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cladoxylales (Dévonien-Carbonifère)
 Wattieza/Eospermatopteris
 Rhacophytales (Dévonien)
 Rhacophyton
@@ -634,16 +864,84 @@
 Stauropteris
 Filicales (Carbonifère-actuel)
 Pecopteris
-Psaronius
-Progymnospermes
-Aneurophytales (Dévonien)
+Psaronius</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Paléobotanique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pal%C3%A9obotanique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classifications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Progymnospermes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Aneurophytales (Dévonien)
 Aneurophyton
 Rellimia
 Tetraxylopteris
 Archaeopteridales (Dévonien-Carbonifère)
-Archaeopteris
-Spermatophytes (plantes à graines)
-Pteridospermatophyta (« fougères à graines »)
+Archaeopteris</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Paléobotanique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pal%C3%A9obotanique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classifications</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spermatophytes (plantes à graines)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pteridospermatophyta (« fougères à graines »)
 Glossoptéridales
 Glossopteris
 Lonchopteris
